--- a/biology/Médecine/Bassin_osseux/Bassin_osseux.xlsx
+++ b/biology/Médecine/Bassin_osseux/Bassin_osseux.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">En anatomie le bassin osseux (en latin pelvis) est une partie du squelette humain, en forme d'entonnoir, constitué des deux os coxaux latéraux, du coccyx et du sacrum en arrière. Il constitue la limite squelettique de la cavité pelvienne et de la ceinture pelvienne.
 </t>
@@ -511,7 +523,9 @@
           <t>Constitution</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bassin est constitué de plusieurs éléments :
 un élément central et postérieur : la partie caudale de la colonne vertébrale fixe constituée du sacrum et du coccyx ;
@@ -559,7 +573,9 @@
           <t>Cavité pelvienne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le bassin osseux délimite la partie inférieure de la cavité abdomino-pelvienne.
 La cavité pelvienne proprement dite est comprise entre en bas l'ouverture inférieure du pelvis et en haut l'ouverture supérieure du pelvis constituant le petit bassin.
@@ -592,10 +608,12 @@
           <t>Perspective évolutive</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Au cours de l'évolution, le petit bassin, permettant le passage du nouveau-né lors de l'accouchement, a vu son diamètre transversal augmenter pour permettre le passage de la tête qui grossissait, tandis que le cerveau se développait.
-Le diamètre transversal du pelvis augmente logiquement au cours de l'évolution. Il est de 98 mm chez les Pan troglodytes (chimpanzés communs), 99,1 mm chez les Australopithèques, puis par ordre croissant on trouve l'Homo habilis, l'Homo erectus, les humains anatomiquement modernes, dont la variabilité permet de donner une limite supérieure et inférieure (comprise entre 122 mm et 132 mm)[1].
+Le diamètre transversal du pelvis augmente logiquement au cours de l'évolution. Il est de 98 mm chez les Pan troglodytes (chimpanzés communs), 99,1 mm chez les Australopithèques, puis par ordre croissant on trouve l'Homo habilis, l'Homo erectus, les humains anatomiquement modernes, dont la variabilité permet de donner une limite supérieure et inférieure (comprise entre 122 mm et 132 mm).
 </t>
         </is>
       </c>
@@ -624,9 +642,11 @@
           <t>Fractures</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La fracture du pelvis (de la ceinture pelvienne) est une fracture grave, car souvent polytraumatique (généralement due à un accident (collision avec véhicule, écrasement ou chute d'une grande hauteur) et souvent associée à des lésions internes et à un risque de choc hémorragique (qui peut être traité par embolisation radiologique avec utilisation de coils, d'éponge hémostatique et/ou de microsphères parfois)[2]. L'hémorragie interne est confirmée par le scanner (extravasation de produit de contraste iodé dans le pelvis)[2].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La fracture du pelvis (de la ceinture pelvienne) est une fracture grave, car souvent polytraumatique (généralement due à un accident (collision avec véhicule, écrasement ou chute d'une grande hauteur) et souvent associée à des lésions internes et à un risque de choc hémorragique (qui peut être traité par embolisation radiologique avec utilisation de coils, d'éponge hémostatique et/ou de microsphères parfois). L'hémorragie interne est confirmée par le scanner (extravasation de produit de contraste iodé dans le pelvis).
 </t>
         </is>
       </c>
